--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2621.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2621.xlsx
@@ -354,7 +354,7 @@
         <v>1.656769177301068</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.728305045243245</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2621.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2621.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7891291912731359</v>
+        <v>1.284680485725403</v>
       </c>
       <c r="B1">
-        <v>1.656769177301068</v>
+        <v>2.31641149520874</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.956624984741211</v>
       </c>
       <c r="D1">
-        <v>1.728305045243245</v>
+        <v>2.994519710540771</v>
       </c>
       <c r="E1">
-        <v>0.9065699553043082</v>
+        <v>1.335245251655579</v>
       </c>
     </row>
   </sheetData>
